--- a/Project Docs/User stories.xlsx
+++ b/Project Docs/User stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ritikachougala/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ritikachougala/Documents/Pace/Sem 4- Project/Project Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A613219-27B0-CA4E-9EFE-CD2C51BFA516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29A417D-CFF3-F441-8782-A86699064EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16920" xr2:uid="{B9A26EF2-34D2-8F4A-A90F-DCC1F9FE34E9}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{B9A26EF2-34D2-8F4A-A90F-DCC1F9FE34E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -83,54 +83,15 @@
     <t>PD-11</t>
   </si>
   <si>
-    <t>As a user, I want to upload an image of a plant leaf to detect diseases.</t>
-  </si>
-  <si>
-    <t>As a user, I want to receive detailed information about the detected plant disease.</t>
-  </si>
-  <si>
-    <t>As a user, I want to view prescriptions and suggested supplements for the detected disease.</t>
-  </si>
-  <si>
-    <t>As a user, I want to know the various cures and preventive measures for the detected disease</t>
-  </si>
-  <si>
-    <t>As a user, I want to check the current weather conditions in my area.</t>
-  </si>
-  <si>
-    <t>As a user, I want to see the stages of the detected disease for better understanding.</t>
-  </si>
-  <si>
-    <t>As a user, I want to view detailed weather reports and forecasts for agriculture planning.</t>
-  </si>
-  <si>
-    <t>As a user, I want to check soil type and recommended plantations for my geographical area.</t>
-  </si>
-  <si>
-    <t>As a user, I want information about suitable crops and growth conditions for my area.</t>
-  </si>
-  <si>
-    <t>As a user, I want to see the latest news related to agriculture and farming practices.</t>
-  </si>
-  <si>
-    <t>As a user, I want to receive notifications or updates about my uploaded plant reports.</t>
-  </si>
-  <si>
     <t>PD-12</t>
   </si>
   <si>
-    <t>As a user, I want to explore and learn about new farming technologies and practices.</t>
-  </si>
-  <si>
     <t>To be done</t>
   </si>
   <si>
     <t>Disease Detection</t>
   </si>
   <si>
-    <t>Weather Information</t>
-  </si>
-  <si>
     <t>Agriculture Details</t>
   </si>
   <si>
@@ -141,6 +102,72 @@
   </si>
   <si>
     <t>Agriculture Information</t>
+  </si>
+  <si>
+    <t>I want to receive detailed information about the detected plant disease.</t>
+  </si>
+  <si>
+    <t>I want to view prescriptions and suggested supplements for the detected disease.</t>
+  </si>
+  <si>
+    <t>I want to upload an image of a plant leaf to detect diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to know the various cures and preventive measures for the detected disease.</t>
+  </si>
+  <si>
+    <t>I want to see the stages of the detected disease for better understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to verify if the image is right</t>
+  </si>
+  <si>
+    <t>Send prompt to user if the image is not in correct format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to know if this crop is available in database</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>I want information about suitable crops and growth conditions for my area.</t>
+  </si>
+  <si>
+    <t>I want to see the latest news related to agriculture and farming practices.</t>
+  </si>
+  <si>
+    <t>I want to receive notifications or updates about my uploaded plant reports.</t>
+  </si>
+  <si>
+    <t>I want to explore and learn about new farming technologies and practices.</t>
+  </si>
+  <si>
+    <t>PD-13</t>
+  </si>
+  <si>
+    <t>PD-14</t>
+  </si>
+  <si>
+    <t>PD-15</t>
+  </si>
+  <si>
+    <t>I want to create account on the website so that I can keep my account private and login using email/phone and password</t>
+  </si>
+  <si>
+    <t>I want to login to the website to store my information.</t>
+  </si>
+  <si>
+    <t>I want to logout so that my information and reports are secure.</t>
+  </si>
+  <si>
+    <t>Login and Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
   </si>
 </sst>
 </file>
@@ -151,29 +178,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,6 +196,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -221,22 +247,24 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,203 +579,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BAAC44-3DA6-1D40-B6A3-756397230D98}">
-  <dimension ref="A1:D13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="129.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>